--- a/projecting/apiVkollege.xlsx
+++ b/projecting/apiVkollege.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>/api</t>
   </si>
@@ -189,6 +189,19 @@
 ]}
 }
 </t>
+  </si>
+  <si>
+    <t>/g</t>
+  </si>
+  <si>
+    <t>Администратору возвращается список всех групп в колледже</t>
+  </si>
+  <si>
+    <t>{message:"Группы были успешно получены",
+boyd:P
+groups:[group,group,group]
+}
+}</t>
   </si>
 </sst>
 </file>
@@ -598,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L20"/>
+  <dimension ref="C4:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="65" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="65" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
@@ -750,7 +763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
@@ -828,15 +841,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="105" x14ac:dyDescent="0.25">
@@ -863,6 +888,11 @@
       </c>
       <c r="K20" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/projecting/apiVkollege.xlsx
+++ b/projecting/apiVkollege.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer4ik\Desktop\Мои разработки\VkollegeApp\projecting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADL\Desktop\Мои разработки\Социальные сети versions\Vkollege(v-0.2)\projecting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>/api</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>{message:"Введённые данные не найдены"}</t>
-  </si>
-  <si>
-    <t>Возвращает ошибку о том, что введенные данные не найдены</t>
   </si>
   <si>
     <t>PUT</t>
@@ -191,17 +188,94 @@
 </t>
   </si>
   <si>
-    <t>/g</t>
-  </si>
-  <si>
     <t>Администратору возвращается список всех групп в колледже</t>
   </si>
   <si>
     <t>{message:"Группы были успешно получены",
-boyd:P
+boyd:{
 groups:[group,group,group]
 }
 }</t>
+  </si>
+  <si>
+    <t>Позволяет администратору получить группу по id</t>
+  </si>
+  <si>
+    <t>Возвращает ошибку о том, что введенные данные некорректны</t>
+  </si>
+  <si>
+    <t>/study/year</t>
+  </si>
+  <si>
+    <t>Позволяет создать новый учебный год</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Позволяет удалить учебный год</t>
+  </si>
+  <si>
+    <t>{year,title}</t>
+  </si>
+  <si>
+    <t>{message:"Новый учебный год был создан",
+ body: {
+  study_year:{year,title}
+ }
+}</t>
+  </si>
+  <si>
+    <t>{message:"Учебный год был успешно удалён"}</t>
+  </si>
+  <si>
+    <t>Возвращает ошибку о некорректно введённых данных</t>
+  </si>
+  <si>
+    <t>{message:"Введены некорректные данные",
+error:[]
+}</t>
+  </si>
+  <si>
+    <t>/study/year/:id</t>
+  </si>
+  <si>
+    <t>Возвращает ошибку о том, что указанный в парамаетрах учебный год не существует</t>
+  </si>
+  <si>
+    <t>{message:"Учебный год не был удалён"}</t>
+  </si>
+  <si>
+    <t>/study/plan</t>
+  </si>
+  <si>
+    <t>Позволяет администратору создать новый учебный год</t>
+  </si>
+  <si>
+    <t>{message:"Учебный план для группы был создан",
+body:{
+study_plan
+}
+}</t>
+  </si>
+  <si>
+    <t>/study/plan/:id</t>
+  </si>
+  <si>
+    <t>Позволяет администратору получить учебный план</t>
+  </si>
+  <si>
+    <t>{message:"Учебный план для группы был получен",
+body:{
+study_plan
+}
+}</t>
+  </si>
+  <si>
+    <t>/study/plan/week/:id</t>
+  </si>
+  <si>
+    <t>{study_year_id,group_id,}</t>
   </si>
 </sst>
 </file>
@@ -310,7 +384,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -321,10 +395,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,18 +688,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L21"/>
+  <dimension ref="C4:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="65" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="65" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -660,239 +737,541 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="3:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>200</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="3:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>200</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="3:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>200</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>400</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="3:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>201</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="3:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="3:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="G14" s="5">
         <v>200</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5">
+        <v>200</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>400</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>400</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>400</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>201</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5">
         <v>200</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G24" s="6">
         <v>400</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
-        <v>38</v>
+      <c r="H24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6">
+        <v>400</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5">
+        <v>201</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="5">
+        <v>200</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="5">
+        <v>200</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
